--- a/DPL_Automation/lib/test_data.xlsx
+++ b/DPL_Automation/lib/test_data.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bhavishya\POC\Dpl_code _given _by sateesh\DPL_Automation\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AD3BFA39-D171-442F-A1AA-A41154F653E7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{04079323-7145-466E-B64D-ED98D0D87D88}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="5895" tabRatio="704" xr2:uid="{FD68C1D4-7575-4CE4-8169-A9A4F74C8520}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="5895" tabRatio="704" activeTab="1" xr2:uid="{FD68C1D4-7575-4CE4-8169-A9A4F74C8520}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_case" sheetId="13" r:id="rId1"/>
-    <sheet name="TestData" sheetId="15" r:id="rId2"/>
-    <sheet name="User_credentials" sheetId="1" r:id="rId3"/>
-    <sheet name="Branch_Inward" sheetId="2" r:id="rId4"/>
-    <sheet name="NBSData_Entry" sheetId="3" r:id="rId5"/>
-    <sheet name="PropserDetails" sheetId="10" r:id="rId6"/>
-    <sheet name="ProductDetails" sheetId="8" r:id="rId7"/>
-    <sheet name="NomineeDeatils" sheetId="7" r:id="rId8"/>
-    <sheet name="Questions" sheetId="4" r:id="rId9"/>
-    <sheet name="Questions_CosmosToIL" sheetId="12" r:id="rId10"/>
-    <sheet name="Call_Verfication" sheetId="5" r:id="rId11"/>
-    <sheet name="FamilyDetails" sheetId="6" r:id="rId12"/>
-    <sheet name="UnderWriting" sheetId="9" r:id="rId13"/>
+    <sheet name="InstrumentDetails" sheetId="16" r:id="rId2"/>
+    <sheet name="TestData" sheetId="15" r:id="rId3"/>
+    <sheet name="User_credentials" sheetId="1" r:id="rId4"/>
+    <sheet name="Branch_Inward" sheetId="2" r:id="rId5"/>
+    <sheet name="NBSData_Entry" sheetId="3" r:id="rId6"/>
+    <sheet name="PropserDetails" sheetId="10" r:id="rId7"/>
+    <sheet name="ProductDetails" sheetId="8" r:id="rId8"/>
+    <sheet name="NomineeDeatils" sheetId="7" r:id="rId9"/>
+    <sheet name="Questions" sheetId="4" r:id="rId10"/>
+    <sheet name="Questions_CosmosToIL" sheetId="12" r:id="rId11"/>
+    <sheet name="Call_Verfication" sheetId="5" r:id="rId12"/>
+    <sheet name="FamilyDetails" sheetId="6" r:id="rId13"/>
+    <sheet name="UnderWriting" sheetId="9" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="300">
   <si>
     <t>Cosmos  id</t>
   </si>
@@ -934,6 +935,27 @@
   </si>
   <si>
     <t>2,1,1</t>
+  </si>
+  <si>
+    <t>PaymentMode</t>
+  </si>
+  <si>
+    <t>Deposit</t>
+  </si>
+  <si>
+    <t>InstrumentData</t>
+  </si>
+  <si>
+    <t>PanStatus</t>
+  </si>
+  <si>
+    <t>Debit Cards</t>
+  </si>
+  <si>
+    <t>CONPS4651A</t>
+  </si>
+  <si>
+    <t>InstrumentDetails</t>
   </si>
 </sst>
 </file>
@@ -1376,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E00EFF-3B9D-4F65-8F6A-CAE25767977E}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,9 +1409,10 @@
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>269</v>
       </c>
@@ -1424,10 +1447,13 @@
         <v>275</v>
       </c>
       <c r="M1" t="s">
+        <v>299</v>
+      </c>
+      <c r="N1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>289</v>
       </c>
@@ -1467,8 +1493,11 @@
       <c r="M2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>290</v>
       </c>
@@ -1506,6 +1535,9 @@
         <v>1</v>
       </c>
       <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>1</v>
       </c>
     </row>
@@ -1515,6 +1547,433 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48BF3DE-4CB5-4F2F-8613-2B115CFCAF12}">
+  <dimension ref="A1:AS3"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:45" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AN1" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO1" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP1" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ1" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AR1" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS1" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="W2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="X2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>11</v>
+      </c>
+      <c r="M3">
+        <v>12</v>
+      </c>
+      <c r="N3">
+        <v>13</v>
+      </c>
+      <c r="O3">
+        <v>14</v>
+      </c>
+      <c r="P3">
+        <v>15</v>
+      </c>
+      <c r="Q3">
+        <v>16</v>
+      </c>
+      <c r="R3">
+        <v>17</v>
+      </c>
+      <c r="S3">
+        <v>18</v>
+      </c>
+      <c r="T3">
+        <v>19</v>
+      </c>
+      <c r="U3">
+        <v>20</v>
+      </c>
+      <c r="V3">
+        <v>21</v>
+      </c>
+      <c r="W3">
+        <v>22</v>
+      </c>
+      <c r="X3">
+        <v>23</v>
+      </c>
+      <c r="Y3">
+        <v>24</v>
+      </c>
+      <c r="Z3">
+        <v>25</v>
+      </c>
+      <c r="AA3">
+        <v>26</v>
+      </c>
+      <c r="AB3">
+        <v>27</v>
+      </c>
+      <c r="AC3">
+        <v>28</v>
+      </c>
+      <c r="AD3">
+        <v>29</v>
+      </c>
+      <c r="AE3">
+        <v>30</v>
+      </c>
+      <c r="AF3">
+        <v>31</v>
+      </c>
+      <c r="AG3">
+        <v>32</v>
+      </c>
+      <c r="AH3">
+        <v>33</v>
+      </c>
+      <c r="AI3">
+        <v>34</v>
+      </c>
+      <c r="AJ3">
+        <v>35</v>
+      </c>
+      <c r="AK3">
+        <v>36</v>
+      </c>
+      <c r="AL3">
+        <v>37</v>
+      </c>
+      <c r="AM3">
+        <v>38</v>
+      </c>
+      <c r="AN3">
+        <v>39</v>
+      </c>
+      <c r="AO3">
+        <v>40</v>
+      </c>
+      <c r="AP3">
+        <v>41</v>
+      </c>
+      <c r="AQ3">
+        <v>42</v>
+      </c>
+      <c r="AR3">
+        <v>43</v>
+      </c>
+      <c r="AS3">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74596B6C-4E04-4FC1-B3A8-FE12F891DC0D}">
   <dimension ref="A1:AN3"/>
   <sheetViews>
@@ -1886,7 +2345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4B2F51-4065-4440-BF33-F743CD3A9293}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1926,7 +2385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B82295-CB8C-471D-BF55-A02761E5DCF7}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1993,7 +2452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FF1117-B41C-4C0C-BDEF-ED83D20A0A98}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -2019,6 +2478,59 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2481BB-B1DF-40F3-B845-A8461DE9E1DF}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37EE7D14-CB05-4E0E-823A-705979722482}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -2101,7 +2613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74995AF-723F-4929-98E4-F121FB0CF6F0}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -2158,7 +2670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F1BF8D-3DB2-4A71-B8A3-F91884C08E86}">
   <dimension ref="A1:W4"/>
   <sheetViews>
@@ -2470,7 +2982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2CD3B2-7B68-4AB5-9D31-7E9C744F1CFC}">
   <dimension ref="A1:AE4"/>
   <sheetViews>
@@ -2874,7 +3386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2D1CF6-7F21-4290-9E32-99BD882D0CD9}">
   <dimension ref="A1:AJ5"/>
   <sheetViews>
@@ -3341,7 +3853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6638D9-36FF-4764-AE7B-2769F32FDC7D}">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -3443,7 +3955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B058D85-547F-458F-B812-044EA4347727}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -3502,431 +4014,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48BF3DE-4CB5-4F2F-8613-2B115CFCAF12}">
-  <dimension ref="A1:AS3"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:45" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ1" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AK1" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL1" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AM1" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="AN1" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="AO1" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP1" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ1" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="AR1" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="AS1" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="R2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="S2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="T2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="U2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="V2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="W2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="X2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
-      </c>
-      <c r="J3">
-        <v>9</v>
-      </c>
-      <c r="K3">
-        <v>10</v>
-      </c>
-      <c r="L3">
-        <v>11</v>
-      </c>
-      <c r="M3">
-        <v>12</v>
-      </c>
-      <c r="N3">
-        <v>13</v>
-      </c>
-      <c r="O3">
-        <v>14</v>
-      </c>
-      <c r="P3">
-        <v>15</v>
-      </c>
-      <c r="Q3">
-        <v>16</v>
-      </c>
-      <c r="R3">
-        <v>17</v>
-      </c>
-      <c r="S3">
-        <v>18</v>
-      </c>
-      <c r="T3">
-        <v>19</v>
-      </c>
-      <c r="U3">
-        <v>20</v>
-      </c>
-      <c r="V3">
-        <v>21</v>
-      </c>
-      <c r="W3">
-        <v>22</v>
-      </c>
-      <c r="X3">
-        <v>23</v>
-      </c>
-      <c r="Y3">
-        <v>24</v>
-      </c>
-      <c r="Z3">
-        <v>25</v>
-      </c>
-      <c r="AA3">
-        <v>26</v>
-      </c>
-      <c r="AB3">
-        <v>27</v>
-      </c>
-      <c r="AC3">
-        <v>28</v>
-      </c>
-      <c r="AD3">
-        <v>29</v>
-      </c>
-      <c r="AE3">
-        <v>30</v>
-      </c>
-      <c r="AF3">
-        <v>31</v>
-      </c>
-      <c r="AG3">
-        <v>32</v>
-      </c>
-      <c r="AH3">
-        <v>33</v>
-      </c>
-      <c r="AI3">
-        <v>34</v>
-      </c>
-      <c r="AJ3">
-        <v>35</v>
-      </c>
-      <c r="AK3">
-        <v>36</v>
-      </c>
-      <c r="AL3">
-        <v>37</v>
-      </c>
-      <c r="AM3">
-        <v>38</v>
-      </c>
-      <c r="AN3">
-        <v>39</v>
-      </c>
-      <c r="AO3">
-        <v>40</v>
-      </c>
-      <c r="AP3">
-        <v>41</v>
-      </c>
-      <c r="AQ3">
-        <v>42</v>
-      </c>
-      <c r="AR3">
-        <v>43</v>
-      </c>
-      <c r="AS3">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>